--- a/public/assets/BOs/Thor.xlsx
+++ b/public/assets/BOs/Thor.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Github\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25537D8-EA6C-4A23-AA04-FF1FEA8BD8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E15D917-EF36-452E-93AD-A6D0F61B0C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="5670" windowWidth="43200" windowHeight="23445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil4" sheetId="5" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="4" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId4"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="172">
   <si>
     <t>Archaic</t>
   </si>
@@ -1479,6 +1480,270 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=aqS4eU0MAGU</t>
+  </si>
+  <si>
+    <t>Thor - Fast 2nd TC - Mirez</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 gatherer to wood</t>
+  </si>
+  <si>
+    <t>0 / 2 / 4 / 0</t>
+  </si>
+  <si>
+    <t>1 dwarf to wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 dwarves to wood</t>
+  </si>
+  <si>
+    <t>Research Copper Shields, this dwarf will go to gold</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 5 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>move 2 from wood to food make an oxcart</t>
+  </si>
+  <si>
+    <t>Berserker builds a house after the 2nd ox cart</t>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>6 dwarves to food</t>
+  </si>
+  <si>
+    <t>Research Copper Weapons, this dwarf will go to wood</t>
+  </si>
+  <si>
+    <t>Berserker builds a temple</t>
+  </si>
+  <si>
+    <t>Advance (3.54)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 6 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 6 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>After buying your 1st hersir move 5 from food to wood</t>
+  </si>
+  <si>
+    <t>Classical (4.54)</t>
+  </si>
+  <si>
+    <t>Add dwarves to wood</t>
+  </si>
+  <si>
+    <t>Keep training hersir</t>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 6 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>After placing your tc move 5 from wood to food</t>
+  </si>
+  <si>
+    <t>make a house with a dwarf</t>
+  </si>
+  <si>
+    <t>link to video</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Wv-A-dG0YMA</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +2092,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1892,6 +2157,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1925,41 +2222,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{B11739F6-FDE6-4BD0-8C36-0CFEE279B9F8}"/>
     <cellStyle name="Lien hypertexte 3" xfId="5" xr:uid="{D29B8A2A-638D-4148-93BE-FD685B793A86}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2244,11 +2521,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004DB6AC-EA08-4AC5-8440-1378E785A924}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
@@ -2273,117 +2550,117 @@
       <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="48" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
     </row>
-    <row r="11" spans="1:4" s="48" customFormat="1" ht="15">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:4" s="32" customFormat="1" ht="15">
+      <c r="A11" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="48" t="s">
         <v>140</v>
       </c>
       <c r="B15" s="46"/>
@@ -2391,57 +2668,57 @@
       <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" ht="15">
-      <c r="C18" s="57"/>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="41" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="59"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="60"/>
+      <c r="A21" s="42"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="60"/>
+      <c r="A22" s="42"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="62"/>
+      <c r="A24" s="44"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="61"/>
+      <c r="A25" s="43"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="62"/>
+      <c r="A26" s="44"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="61"/>
+      <c r="A27" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2456,6 +2733,251 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE1FD85-23DD-4C9B-A5CB-EA2608B12DC1}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" thickBot="1">
+      <c r="A1" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+    </row>
+    <row r="3" spans="1:4" ht="58.5" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="58.5" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="115.5" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="115.5" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="87" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="115.5" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A12" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="13" spans="1:4" ht="58.5" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="44.25" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="115.5" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A16" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+    </row>
+    <row r="17" spans="1:4" ht="58.5" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="90.75" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A21" s="64"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+    </row>
+    <row r="22" spans="1:4" ht="60.75" thickBot="1">
+      <c r="A22" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{65B35EA3-2667-4C4C-9437-966F2007B1C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6680AA3C-660E-4512-8311-360274DD2AC9}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -2463,23 +2985,23 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
@@ -2614,12 +3136,12 @@
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6"/>
@@ -2666,12 +3188,12 @@
       <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
@@ -2712,10 +3234,10 @@
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="36"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="10"/>
@@ -2768,7 +3290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CCFC68-0746-4C6F-BCC1-F86EACB19062}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -2776,7 +3298,7 @@
       <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" thickBot="1">
       <c r="A1" s="27" t="s">
@@ -2906,7 +3428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8687E243-15B1-41C8-AC08-9FC8810D84BA}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -2914,23 +3436,23 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="15" t="s">
@@ -2979,12 +3501,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15"/>
@@ -3005,12 +3527,12 @@
       <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
     </row>
     <row r="11" spans="1:4" ht="105">
       <c r="A11" s="15" t="s">
@@ -3045,10 +3567,10 @@
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="38"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="10"/>
@@ -3092,7 +3614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3100,7 +3622,7 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -3109,20 +3631,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -3205,12 +3727,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
@@ -3245,12 +3767,12 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1">
       <c r="A15" s="1" t="s">
